--- a/commands_collectors1.xlsx
+++ b/commands_collectors1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudOps\sumo\NON_GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150628A4-AED5-4501-B5B8-C1C614852F13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74795B67-FAB9-45B9-8415-052ECFE28F4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9B6564FA-BB61-4A29-809C-686458BD4F63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9B6564FA-BB61-4A29-809C-686458BD4F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="321">
   <si>
     <t>CustomerPrefix</t>
   </si>
@@ -2290,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674FB45-23B2-44A6-8C09-E07CFFB85591}">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2383,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48EF0F2-DF8E-413B-95F6-8E7F1F0AF379}">
   <dimension ref="B1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9383EE61-D6BA-47E7-B652-022BD622CD85}">
   <dimension ref="C1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4220,7 +4220,7 @@
   <dimension ref="B1:U66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134071F6-348F-4CCB-8656-2203B521BED9}">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5948,8 +5948,8 @@
         <v>168641817</v>
       </c>
       <c r="J2" t="str">
-        <f>_xlfn.CONCAT(TRIM(B2),TRIM(C2),TRIM(D2))</f>
-        <v>abcgrpdev#INFORBCWEB01</v>
+        <f>_xlfn.CONCAT(TRIM(B2),TRIM(C2),TRIM(D2),TRIM(E2),TRIM(F2))</f>
+        <v>abcgrpdev#INFORBCWEB01#168641817</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -5972,8 +5972,8 @@
         <v>167465297</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">_xlfn.CONCAT(TRIM(B3),TRIM(C3),TRIM(D3))</f>
-        <v>abcgrpprd#INFORBCWEB01</v>
+        <f t="shared" ref="J3:J67" si="0">_xlfn.CONCAT(TRIM(B3),TRIM(C3),TRIM(D3),TRIM(E3),TRIM(F3))</f>
+        <v>abcgrpprd#INFORBCWEB01#167465297</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>accorhotels#INFORBCWEB01</v>
+        <v>accorhotels#INFORBCWEB01#149398927</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>accorhotelsdev#INFORBCWEB01</v>
+        <v>accorhotelsdev#INFORBCWEB01#149398044</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>accormeaprd-sun#INFORBCWEB01</v>
+        <v>accormeaprd-sun#INFORBCWEB01#167634559</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>accormeatst-sun#INFORBCWEB01</v>
+        <v>accormeatst-sun#INFORBCWEB01#167630983</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>amsaleprd-sun#INFORBCWEB01</v>
+        <v>amsaleprd-sun#INFORBCWEB01#163184620</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>amsaletrn-sun#INFORBCWEB01</v>
+        <v>amsaletrn-sun#INFORBCWEB01#168641514</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>apllpprd-sun#INFORBCWEB01</v>
+        <v>apllpprd-sun#INFORBCWEB01#158620473</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>apllptest-sun#INFORBCWEB01</v>
+        <v>apllptest-sun#INFORBCWEB01#158621694</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>biiprd#INFORBCWEB01</v>
+        <v>biiprd#INFORBCWEB01#148724903</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>biitest#INFORBCWEB01</v>
+        <v>biitest#INFORBCWEB01#148724630</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>cglprd-sun#INFORBCWEB01</v>
+        <v>cglprd-sun#INFORBCWEB01#168610803</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>cgltst-sun#INFORBCWEB01</v>
+        <v>cgltst-sun#INFORBCWEB01#168610670</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>dbjetest-sun#INFORBCWEB01</v>
+        <v>dbjetest-sun#INFORBCWEB01#158651315</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>dbjprd-sun#INFORBCWEB01</v>
+        <v>dbjprd-sun#INFORBCWEB01#158651532</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>eacsprod#INFORBCWEB01</v>
+        <v>eacsprod#INFORBCWEB01#167462981</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>eacstest-sun#INFORBCWEB01</v>
+        <v>eacstest-sun#INFORBCWEB01#156517153</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>ecocprodsun#INFORBCWEB01</v>
+        <v>ecocprodsun#INFORBCWEB01#155231646</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>ecotestsun#INFORBCWEB01</v>
+        <v>ecotestsun#INFORBCWEB01#168433274</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>emmisprd-sun#INFORBCWEB01</v>
+        <v>emmisprd-sun#INFORBCWEB01#158841324</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>emmistest-sun#INFORBCWEB01</v>
+        <v>emmistest-sun#INFORBCWEB01#158842510</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>fdntest-sun#INFORBCWEB01</v>
+        <v>fdntest-sun#INFORBCWEB01#159966725</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>flipprdpoc#INFORBCWEB01</v>
+        <v>flipprdpoc#INFORBCWEB01#162312514</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>fliptstpoc#INFORBCWEB01</v>
+        <v>fliptstpoc#INFORBCWEB01#162312597</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>gaincapital-tst#INFORBCWEB01</v>
+        <v>gaincapital-tst#INFORBCWEB01#151610647</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>gaincapitalprod#INFORBCWEB01</v>
+        <v>gaincapitalprod#INFORBCWEB01#156478460</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>iaaf-dev#INFORBCWEB01</v>
+        <v>iaaf-dev#INFORBCWEB01#168534534</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>iaaf#INFORBCWEB01</v>
+        <v>iaaf#INFORBCWEB01#167408402</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>idc-apfin#INFORBCWEB01</v>
+        <v>idc-apfin#INFORBCWEB01#149717331</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>idc-apfindev#INFORBCWEB01</v>
+        <v>idc-apfindev#INFORBCWEB01#149815833</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>iyfprod#INFORBCWEB01</v>
+        <v>iyfprod#INFORBCWEB01#167462561</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>iyftest-sun#INFORBCWEB01</v>
+        <v>iyftest-sun#INFORBCWEB01#157339920</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>jnwprd-sun#INFORBCWEB01</v>
+        <v>jnwprd-sun#INFORBCWEB01#168511054</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>jnwtst-sun#INFORBCWEB01</v>
+        <v>jnwtst-sun#INFORBCWEB01#165813067</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>kataradev-sun#INFORBCWEB01</v>
+        <v>kataradev-sun#INFORBCWEB01#168612846</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>lgimtst#INFORBCWEB01</v>
+        <v>lgimtst#INFORBCWEB01#156876163</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>mettaprd-sun#INFORBCWEB01</v>
+        <v>mettaprd-sun#INFORBCWEB01#168614599</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>mettatst-sun#INFORBCWEB01</v>
+        <v>mettatst-sun#INFORBCWEB01#168614478</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>mmpcprod-sun#INFORBCWEB01</v>
+        <v>mmpcprod-sun#INFORBCWEB01#167552595</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>mmpctst-sun#INFORBCWEB01</v>
+        <v>mmpctst-sun#INFORBCWEB01#167384694</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>nestaprd-sun#INFORBCWEB01</v>
+        <v>nestaprd-sun#INFORBCWEB01#158670258</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>nolprod#INFORBCWEB01</v>
+        <v>nolprod#INFORBCWEB01#162802484</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>noltest#INFORBCWEB01</v>
+        <v>noltest#INFORBCWEB01#162717420</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>ovolo#INFORBCWEB01</v>
+        <v>ovolo#INFORBCWEB01#167403856</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>ovolotest#INFORBCWEB01</v>
+        <v>ovolotest#INFORBCWEB01#167402986</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>palprd-sun#INFORBCWEB01</v>
+        <v>palprd-sun#INFORBCWEB01#158667758</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>paltest-sun#INFORBCWEB01</v>
+        <v>paltest-sun#INFORBCWEB01#158667930</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>pc-sundev#INFORBCWEB01</v>
+        <v>pc-sundev#INFORBCWEB01#148751602</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>pc-sunprod#INFORBCWEB01</v>
+        <v>pc-sunprod#INFORBCWEB01#148467122</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>phlprod-sun#INFORBCWEB01</v>
+        <v>phlprod-sun#INFORBCWEB01#165875304</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>phltst-sun#INFORBCWEB01</v>
+        <v>phltst-sun#INFORBCWEB01#165813008</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>protransprd-sun#INFORBCWEB01</v>
+        <v>protransprd-sun#INFORBCWEB01#166462694</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>protranstst-sun#INFORBCWEB01</v>
+        <v>protranstst-sun#INFORBCWEB01#166464236</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>qhalprd-sun#INFORBCWEB01</v>
+        <v>qhalprd-sun#INFORBCWEB01#163479832</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>qhaltst-sun#INFORBCWEB01</v>
+        <v>qhaltst-sun#INFORBCWEB01#168457474</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>rbcsdev-sun#INFORBCWEB01</v>
+        <v>rbcsdev-sun#INFORBCWEB01#152554580</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>rbcsprod-sun#INFORBCWEB01</v>
+        <v>rbcsprod-sun#INFORBCWEB01#152554311</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>srsprd-sun#INFORBCWEB01</v>
+        <v>srsprd-sun#INFORBCWEB01#167995881</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
-        <v>srstest-sun#INFORBCWEB01</v>
+        <v>srstest-sun#INFORBCWEB01#168028338</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>wviamprod#INFORBCWEB01</v>
+        <v>wviamprod#INFORBCWEB01#167463487</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>wviamtest#INFORBCWEB01</v>
+        <v>wviamtest#INFORBCWEB01#168454170</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>wviapprod#INFORBCWEB01</v>
+        <v>wviapprod#INFORBCWEB01#167488137</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>wviaptest#INFORBCWEB01</v>
+        <v>wviaptest#INFORBCWEB01#168457749</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -7488,7 +7488,31 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
-        <v>wvieuprod#INFORBCWEB01</v>
+        <v>wvieuprod#INFORBCWEB01#167464883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67">
+        <v>170332259</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>wvieutest#INFORBCWEB01#170332259</v>
       </c>
     </row>
   </sheetData>
@@ -7595,7 +7619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E859E5D0-C09F-4D95-85CD-D61D2677E816}">
   <dimension ref="C2:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -9419,7 +9443,7 @@
   <dimension ref="C2:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11121,13 +11145,13 @@
       </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D67">
+      <c r="D67" t="str">
         <f>(WEB_Ids!B67)</f>
-        <v>0</v>
+        <v>wvieutest</v>
       </c>
       <c r="G67">
         <f>(WEB_Ids!F67)</f>
-        <v>0</v>
+        <v>170332259</v>
       </c>
     </row>
   </sheetData>
